--- a/MedicalPJ/bin/Debug/Patients.xlsx
+++ b/MedicalPJ/bin/Debug/Patients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr autoCompressPictures="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-20490" yWindow="1365" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t xml:space="preserve">wbc</t>
   </si>
@@ -94,67 +94,70 @@
     <t xml:space="preserve">savizky</t>
   </si>
   <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: בר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: שוורץ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: ture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 35</t>
-  </si>
-  <si>
     <t xml:space="preserve">בר</t>
   </si>
   <si>
     <t xml:space="preserve">שוורץ</t>
   </si>
   <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System.Windows.Forms.TextBox, Text: 0</t>
+    <t xml:space="preserve">בק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיכו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיכו רצח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיכו מת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלכס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סביצקי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שיר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גוטליב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הגבר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הגבר רצח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkfx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -185,10 +188,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,20 +705,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="46.8984375" customWidth="1"/>
-    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -671,16 +747,16 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
@@ -727,16 +803,16 @@
       <c r="H2">
         <v>7000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.4</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.4</v>
       </c>
       <c r="M2">
@@ -762,69 +838,728 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="6">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.40000000596046398</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P3">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="P5">
+        <v>75</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>12000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>11.5</v>
+      </c>
+      <c r="O6">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="P6">
+        <v>159</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>12000</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>11.5</v>
+      </c>
+      <c r="O7">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="P7">
+        <v>159</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>45</v>
+      </c>
+      <c r="N8">
+        <v>11.5</v>
+      </c>
+      <c r="O8">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="P8">
+        <v>159</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15000</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="44">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="62">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0.08</v>
+      </c>
+      <c r="J14" s="66">
+        <v>0.0799999982118607</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14" s="68">
+        <v>0.0799999982118607</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>39</v>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="72">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="74">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>22</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MedicalPJ/bin/Debug/Patients.xlsx
+++ b/MedicalPJ/bin/Debug/Patients.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t xml:space="preserve">wbc</t>
   </si>
@@ -149,6 +149,57 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גכג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klkh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khlh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלגס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsa</t>
   </si>
 </sst>
 </file>
@@ -188,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
@@ -199,6 +250,90 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
@@ -1562,6 +1697,790 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0.23</v>
+      </c>
+      <c r="J16" s="78">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="K16">
+        <v>42</v>
+      </c>
+      <c r="L16" s="80">
+        <v>0.239999994635582</v>
+      </c>
+      <c r="M16">
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>24</v>
+      </c>
+      <c r="P16">
+        <v>24</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="82">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="84">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="86">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="90">
+        <v>0.0299999993294477</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="92">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>89</v>
+      </c>
+      <c r="I19" s="94">
+        <v>0.02</v>
+      </c>
+      <c r="J19" s="96">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="98">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="J20" s="102">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="104">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>23</v>
+      </c>
+      <c r="I21" s="106">
+        <v>0.23</v>
+      </c>
+      <c r="J21" s="108">
+        <v>0.230000004172325</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+      <c r="L21" s="110">
+        <v>0.230000004172325</v>
+      </c>
+      <c r="M21">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>23</v>
+      </c>
+      <c r="O21">
+        <v>23</v>
+      </c>
+      <c r="P21">
+        <v>23</v>
+      </c>
+      <c r="Q21">
+        <v>23</v>
+      </c>
+      <c r="R21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="112">
+        <v>0.02</v>
+      </c>
+      <c r="J22" s="114">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="116">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="118">
+        <v>0.02</v>
+      </c>
+      <c r="J23" s="120">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="122">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="J24" s="126">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24" s="128">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="130">
+        <v>0.02</v>
+      </c>
+      <c r="J25" s="132">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="134">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26" s="136">
+        <v>0.15</v>
+      </c>
+      <c r="J26" s="138">
+        <v>0.119999997317791</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26" s="140">
+        <v>0.0799999982118607</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>45</v>
+      </c>
+      <c r="I27" s="142">
+        <v>0.08</v>
+      </c>
+      <c r="J27" s="144">
+        <v>0.0500000007450581</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" s="146">
+        <v>0.00999999977648258</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="148">
+        <v>0.02</v>
+      </c>
+      <c r="J28" s="150">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="152">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29" s="154">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="156">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" s="158">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/MedicalPJ/bin/Debug/Patients.xlsx
+++ b/MedicalPJ/bin/Debug/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\GitHub\Medical_Testing_Project\MedicalPJ\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BFCA07-AA0F-4472-817F-4FB2088C4173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F8F08-01FB-4453-BD94-364904CCC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>wbc</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>שני כדורי 5 מ''ג של כורכום C3 של אלטמן ביום למשך חודש</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -929,9 +932,60 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1.9999999552965199E-2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1.9999999552965199E-2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" s="23"/>

--- a/MedicalPJ/bin/Debug/Patients.xlsx
+++ b/MedicalPJ/bin/Debug/Patients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\GitHub\Medical_Testing_Project\MedicalPJ\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Desktop\Medical_Testing_Project backup alex\MedicalPJ\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F8F08-01FB-4453-BD94-364904CCC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7564E48-7706-4026-ACF9-75EBC1A7A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>wbc</t>
   </si>
@@ -100,30 +100,6 @@
     <t>Recommendation</t>
   </si>
   <si>
-    <t>סרטן</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אנטרקטיניב </t>
-  </si>
-  <si>
-    <t>הפרעה ביצירת הדם</t>
-  </si>
-  <si>
-    <t>זיהום</t>
-  </si>
-  <si>
-    <t>אנטיביוטיקה ייעודית</t>
-  </si>
-  <si>
-    <t>מחלת כליה</t>
-  </si>
-  <si>
-    <t>איזון את רמות הסוכר בדם</t>
-  </si>
-  <si>
-    <t>מחלות שריר</t>
-  </si>
-  <si>
     <t>xzcz</t>
   </si>
   <si>
@@ -134,15 +110,6 @@
   </si>
   <si>
     <t>לנוח בבית</t>
-  </si>
-  <si>
-    <t>כדור 10 מ''ג של B12 ביום למשך חודש כדור 5 מ''ג של פולית ביום למשך חודש</t>
-  </si>
-  <si>
-    <t>שני כדורי 5 מ''ג של כורכום C3 של אלטמן ביום למשך חודש</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
 </sst>
 </file>
@@ -731,7 +698,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A3" sqref="A3:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -818,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>45</v>
@@ -869,123 +836,42 @@
         <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="L3" s="7"/>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
       <c r="L4" s="10"/>
-      <c r="S4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="L5" s="13"/>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
       <c r="L6" s="16"/>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="L7" s="19"/>
-      <c r="S7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0.22</v>
-      </c>
-      <c r="J8" s="21">
-        <v>1.9999999552965199E-2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="22">
-        <v>1.9999999552965199E-2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" s="23"/>

--- a/MedicalPJ/bin/Debug/Patients.xlsx
+++ b/MedicalPJ/bin/Debug/Patients.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Desktop\Medical_Testing_Project backup alex\MedicalPJ\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7564E48-7706-4026-ACF9-75EBC1A7A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -35,88 +29,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>wbc</t>
-  </si>
-  <si>
-    <t>Neut</t>
-  </si>
-  <si>
-    <t>Lymph</t>
-  </si>
-  <si>
-    <t>RBC</t>
-  </si>
-  <si>
-    <t>HCT</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
-    <t>Crtn</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>east</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ethiopian</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
-    <t>Recommendation</t>
-  </si>
-  <si>
-    <t>xzcz</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>מחלה ויראלית</t>
-  </si>
-  <si>
-    <t>לנוח בבית</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">wbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethiopian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xzcz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחלה ויראלית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לנוח בבית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלכס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גבר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיכו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,124 +172,133 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,16 +597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>7000</v>
       </c>
@@ -690,18 +708,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.796875" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -718,7 +739,7 @@
     <col min="20" max="20" width="47.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -780,7 +801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -842,153 +863,205 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="I10" s="26"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="I11" s="29"/>
       <c r="J11" s="30"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="I12" s="32"/>
       <c r="J12" s="33"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="I13" s="34"/>
       <c r="J13" s="35"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="I14" s="37"/>
       <c r="J14" s="38"/>
       <c r="L14" s="39"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="I15" s="40"/>
       <c r="J15" s="41"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="I16" s="43"/>
       <c r="J16" s="44"/>
       <c r="L16" s="45"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12">
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12">
       <c r="I18" s="49"/>
       <c r="J18" s="50"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12">
       <c r="I19" s="52"/>
       <c r="J19" s="53"/>
       <c r="L19" s="54"/>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:12">
       <c r="I20" s="55"/>
       <c r="J20" s="56"/>
       <c r="L20" s="57"/>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:12">
       <c r="I21" s="58"/>
       <c r="J21" s="59"/>
       <c r="L21" s="60"/>
     </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:12">
       <c r="I22" s="61"/>
       <c r="J22" s="62"/>
       <c r="L22" s="63"/>
     </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:12">
       <c r="I23" s="64"/>
       <c r="J23" s="65"/>
       <c r="L23" s="66"/>
     </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:12">
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
       <c r="L24" s="69"/>
     </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:12">
       <c r="I25" s="70"/>
       <c r="J25" s="71"/>
       <c r="L25" s="72"/>
     </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:12">
       <c r="I26" s="73"/>
       <c r="J26" s="74"/>
       <c r="L26" s="75"/>
     </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:12">
       <c r="I27" s="76"/>
       <c r="J27" s="77"/>
       <c r="L27" s="78"/>
     </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:12">
       <c r="I28" s="79"/>
       <c r="J28" s="80"/>
       <c r="L28" s="81"/>
     </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:12">
       <c r="I29" s="82"/>
       <c r="J29" s="83"/>
       <c r="L29" s="84"/>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12">
       <c r="I30" s="85"/>
       <c r="J30" s="86"/>
       <c r="L30" s="87"/>
     </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:12">
       <c r="I31" s="88"/>
       <c r="J31" s="89"/>
       <c r="L31" s="90"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12">
       <c r="I33" s="93"/>
       <c r="J33" s="94"/>
       <c r="L33" s="95"/>
@@ -996,5 +1069,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MedicalPJ/bin/Debug/Patients.xlsx
+++ b/MedicalPJ/bin/Debug/Patients.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t xml:space="preserve">wbc</t>
   </si>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
   </si>
 </sst>
 </file>
@@ -989,59 +1007,620 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.0299999993294477</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.0299999993294477</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>333</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.0299999993294477</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.0299999993294477</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="P10">
+        <v>80</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11">
+        <v>1.39999997615814</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>140</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="L12" s="4"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0.200000002980232</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.400000005960464</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2222</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0.22</v>
+      </c>
+      <c r="J13" s="35">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13" s="36">
+        <v>0.0299999993294477</v>
+      </c>
+      <c r="M13">
+        <v>333</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>33</v>
+      </c>
+      <c r="P13">
+        <v>33</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>222</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="39">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="41">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.0199999995529652</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>22</v>
+      </c>
+      <c r="O15">
+        <v>222</v>
+      </c>
+      <c r="P15">
+        <v>22</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="I16" s="43"/>
